--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3907.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3907.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.710005725853587</v>
+        <v>1.899443030357361</v>
       </c>
       <c r="B1">
-        <v>2.225694421005335</v>
+        <v>3.131730556488037</v>
       </c>
       <c r="C1">
-        <v>3.429472893508677</v>
+        <v>2.80917763710022</v>
       </c>
       <c r="D1">
-        <v>7.648993186752978</v>
+        <v>3.374208688735962</v>
       </c>
       <c r="E1">
-        <v>0.7103811415003147</v>
+        <v>3.930059194564819</v>
       </c>
     </row>
   </sheetData>
